--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/bal_accuracy_grouped_means.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/bal_accuracy_grouped_means.xlsx
@@ -463,13 +463,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6134458169232605</v>
+        <v>0.6086243883518321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6054101026375464</v>
+        <v>0.6054101026375462</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5561142439431913</v>
+        <v>0.5561142439431912</v>
       </c>
     </row>
   </sheetData>
